--- a/_file/sample/pasien.xlsx
+++ b/_file/sample/pasien.xlsx
@@ -128,7 +128,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -160,7 +160,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -172,7 +172,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.85"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
